--- a/information_recovery/practice2/Practice_02_IR_preprocessing_dictionary.xlsx
+++ b/information_recovery/practice2/Practice_02_IR_preprocessing_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Python\olmedo-vinueza-alexander-daniel\information_recovery\practice2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F85C03E-241E-4171-9120-1B716A55D906}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E580D3CF-BE7D-4FAD-A873-0C57C07D0387}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12720" yWindow="4395" windowWidth="21600" windowHeight="11385" xr2:uid="{A027B95B-EEB5-4FF7-8BFC-041FC2FE0CFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A027B95B-EEB5-4FF7-8BFC-041FC2FE0CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
   <si>
     <t>Exercise 1: Increasing the size of the collection</t>
   </si>
@@ -128,17 +128,26 @@
     <t>Col 2001-5000</t>
   </si>
   <si>
-    <t>Time (s)</t>
+    <t>Variants: read several files instead of only one, uncompress a file if it is compressed, insert an option to print</t>
+  </si>
+  <si>
+    <t>or not the index, print the indexing time. For large collections, you must not print the index!</t>
+  </si>
+  <si>
+    <t>Read several files and uncompress if it's compressed:</t>
+  </si>
+  <si>
+    <t>Time efficiency (s)</t>
+  </si>
+  <si>
+    <t>Print the index:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
-  </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +189,12 @@
       <color rgb="FF000000"/>
       <name val="TimesNewRomanPS-ItalicMT"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -216,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -224,7 +239,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -270,13 +286,24 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="85000"/>
+                      <a:lumOff val="15000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -297,30 +324,97 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$19</c:f>
+              <c:f>Sheet1!$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time (s)</c:v>
+                  <c:v>Time efficiency (s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$20:$B$28</c:f>
+              <c:f>Sheet1!$C$22:$C$30</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -355,9 +449,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$20:$C$28</c:f>
+              <c:f>Sheet1!$D$22:$D$30</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>9.3399999999999997E-2</c:v>
@@ -397,13 +491,15 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1145633344"/>
         <c:axId val="1150534400"/>
@@ -423,7 +519,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -437,9 +533,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -464,53 +560,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="1145633344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -540,7 +595,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -567,11 +622,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -639,78 +694,8 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="234">
   <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -720,15 +705,82 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9575">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -740,12 +792,12 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -755,12 +807,12 @@
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -772,43 +824,37 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -816,14 +862,13 @@
     <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointWireframe>
@@ -832,21 +877,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -861,15 +904,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -880,17 +923,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -899,17 +941,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -918,31 +959,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -951,17 +985,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -970,36 +1003,34 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1008,27 +1039,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1036,11 +1067,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1048,17 +1090,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1067,12 +1108,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" cap="all" spc="0" baseline="0">
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1081,14 +1137,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1097,7 +1152,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -1117,9 +1172,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1130,7 +1185,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -1142,14 +1197,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1158,15 +1207,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1190,6 +1239,153 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>789865</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>37996</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AAEC1FE-EEA2-4139-8C45-412B63F4F411}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="7781925"/>
+          <a:ext cx="5676190" cy="828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485244</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>85629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{626B481F-C518-4047-A2E9-6F17DACB32C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="9220200"/>
+          <a:ext cx="4247619" cy="771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8809</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>37706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9001A5D-911D-4046-85B2-CC7A73EA5D04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="10220325"/>
+          <a:ext cx="5723809" cy="3152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1492,165 +1688,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92516865-AD7E-4CAA-93F3-A51857ECCF63}">
-  <dimension ref="B2:G28"/>
+  <dimension ref="B2:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="O51" sqref="O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="12" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="13" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:4">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:4">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="C6" s="2" t="s">
+    <row r="5" spans="2:4">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
-      <c r="C7" s="2" t="s">
+    <row r="7" spans="2:4">
+      <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
-      <c r="C8" s="2" t="s">
+    <row r="8" spans="2:4">
+      <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
-      <c r="C9" s="2" t="s">
+    <row r="9" spans="2:4">
+      <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
-      <c r="C10" s="2" t="s">
+    <row r="10" spans="2:4">
+      <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
-      <c r="C11" s="2" t="s">
+    <row r="11" spans="2:4">
+      <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
-      <c r="C12" s="2" t="s">
+    <row r="12" spans="2:4">
+      <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
-      <c r="C13" s="2" t="s">
+    <row r="13" spans="2:4">
+      <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
-      <c r="C14" s="2" t="s">
+    <row r="14" spans="2:4">
+      <c r="D14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="1" t="s">
+    <row r="15" spans="2:4">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="5" t="s">
+    <row r="17" spans="3:8">
+      <c r="C17" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
-      <c r="C19" s="4" t="s">
+    <row r="21" spans="3:8">
+      <c r="D21" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="C22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="8">
+        <v>9.3399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="C23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.25190000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="C24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0.6109</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8">
+      <c r="C25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1.1457999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8">
+      <c r="C26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="8">
+        <v>2.8649</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="8">
+        <v>5.4741</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="C28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="8">
+        <v>16.6296</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8">
+      <c r="C29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="8">
+        <v>48.947400000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="C30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="8">
+        <v>424.51499999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="7">
-        <v>9.3399999999999997E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0.25190000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0.6109</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1.1457999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2.8649</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="7">
-        <v>5.4741</v>
-      </c>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="7">
-        <v>16.6296</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="7">
-        <v>48.947400000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="7">
-        <v>424.51499999999999</v>
+    <row r="38" spans="3:3">
+      <c r="C38" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/information_recovery/practice2/Practice_02_IR_preprocessing_dictionary.xlsx
+++ b/information_recovery/practice2/Practice_02_IR_preprocessing_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Python\olmedo-vinueza-alexander-daniel\information_recovery\practice2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E580D3CF-BE7D-4FAD-A873-0C57C07D0387}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9CA88B-4240-4022-8358-B95A68DC0E51}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A027B95B-EEB5-4FF7-8BFC-041FC2FE0CFC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Exercise 1: Increasing the size of the collection</t>
   </si>
@@ -64,41 +64,6 @@
   </si>
   <si>
     <t>4.1M 09-Text_Only-Ascii-Coll-2001-5000-NoSem.gz</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Index each of these files using your indexing program (cf. Practical session n°1: dictionary, postings lists, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="TimesNewRomanPS-ItalicMT"/>
-      </rPr>
-      <t>df</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="TimesNewRomanPSMT"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>tf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="TimesNewRomanPSMT"/>
-      </rPr>
-      <t>). Build a time efficiency graph of your program.</t>
-    </r>
   </si>
   <si>
     <t>Col 1-10</t>
@@ -142,12 +107,83 @@
   <si>
     <t>Print the index:</t>
   </si>
+  <si>
+    <t>Exercise 2: Collection Statistics</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Index each of these files using your indexing program (cf. Practical session n°1: dictionary, postings lists, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>). Build a time efficiency graph of your program.</t>
+    </r>
+  </si>
+  <si>
+    <t>Modify your indexing program so that it computes different statistics on the indexed collection, for instance:</t>
+  </si>
+  <si>
+    <t>Plot the evolution of these statistics as the collection size grows</t>
+  </si>
+  <si>
+    <t>Total document length</t>
+  </si>
+  <si>
+    <t>Average document length</t>
+  </si>
+  <si>
+    <t>Vocabulary size</t>
+  </si>
+  <si>
+    <t>Collection size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1. document length,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2. term length,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3. vocabulary size,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4. collection frequency of terms.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,40 +192,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="TimesNewRomanPSMT"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="TimesNewRomanPS-ItalicMT"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -231,16 +261,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -286,24 +320,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="85000"/>
-                      <a:lumOff val="15000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -316,30 +336,27 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$21</c:f>
+              <c:f>Sheet1!$E$84</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time efficiency (s)</c:v>
+                  <c:v>Total document length</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="95000"/>
-                  <a:satMod val="105000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -347,171 +364,180 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="17"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$85:$D$93</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$85:$E$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>22373</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42737</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80113</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255814</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>456532</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>722913</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1139876</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2642185</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-547D-4BBD-AB09-7390220A51A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1967232095"/>
+        <c:axId val="1918780511"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1967232095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="accent1"/>
+                      <a:schemeClr val="dk1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-EC"/>
+                <a:r>
+                  <a:rPr lang="es-EC"/>
+                  <a:t>Collection Size</a:t>
+                </a:r>
               </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$22:$C$30</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Col 1-10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Col 11-20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Col 21-50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Col 51-100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Col 101-200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Col 201-500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Col 501-1000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Col 1001-2000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Col 2001-5000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$22:$D$30</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>9.3399999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25190000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6109</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1457999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.8649</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.4741</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16.6296</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>48.947400000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>424.51499999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C99F-4C0E-AD28-85E061CEBE62}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1145633344"/>
-        <c:axId val="1150534400"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1145633344"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -519,9 +545,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -533,12 +559,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -548,27 +571,117 @@
             <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1150534400"/>
+        <c:crossAx val="1918780511"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="1150534400"/>
+        <c:axId val="1918780511"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-EC"/>
+                  <a:t>Length of all documents</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1145633344"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1967232095"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -578,8 +691,63 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:miter lim="800000"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -593,12 +761,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -608,30 +773,379 @@
           <a:endParaRPr lang="es-EC"/>
         </a:p>
       </c:txPr>
-    </c:legend>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time efficiency (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$22:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$22:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>314.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C597-4D91-9F4D-4B6C645067C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1967231295"/>
+        <c:axId val="1918781343"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1967231295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-EC"/>
+                  <a:t>Collection Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1918781343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1918781343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-EC"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1967231295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
       <a:schemeClr val="lt1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="dk1"/>
       </a:solidFill>
-      <a:round/>
+      <a:prstDash val="solid"/>
+      <a:miter lim="800000"/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -640,7 +1154,798 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average document length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$85:$D$93</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$85:$F$93</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2237.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2136.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1602.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1197.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1279.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>913.06399999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>722.91300000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>569.93799999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>528.43700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-38AF-46B2-B463-1560F4925245}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1916898559"/>
+        <c:axId val="1837570383"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1916898559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-EC"/>
+                  <a:t>Collection Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1837570383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1837570383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1916898559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:miter lim="800000"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vocabulary size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$85:$D$93</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$85:$G$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6078</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9874</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16967</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22891</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65027</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96036</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>290490</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EC92-4B11-AFC1-0BD0F236ED4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1900176223"/>
+        <c:axId val="1839692319"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1900176223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-EC"/>
+                  <a:t>Collection Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1839692319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1839692319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1900176223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:miter lim="800000"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="es-EC"/>
     </a:p>
@@ -693,9 +1998,199 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="234">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -705,82 +2200,15 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <cs:styleClr val="auto"/>
-    </cs:fontRef>
-    <cs:spPr/>
-    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9575">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -792,83 +2220,77 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-            <a:satMod val="105000"/>
-          </a:schemeClr>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointWireframe>
@@ -877,19 +2299,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -899,7 +2323,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -908,129 +2332,142 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1039,27 +2476,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1067,22 +2504,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1090,16 +2516,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1108,27 +2535,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1440" b="0" kern="1200" cap="all" spc="0" baseline="0">
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="50000"/>
-              <a:lumOff val="50000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:defRPr>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1137,17 +2549,164 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
   <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1157,6 +2716,376 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
@@ -1164,23 +3093,136 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
   <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1190,6 +3232,421 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1197,62 +3654,548 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{865AD9CA-202C-4DF0-BD16-A50023101B17}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>789865</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>37996</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>599365</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>104671</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1268,14 +4211,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1781175" y="7781925"/>
+          <a:off x="1533525" y="8039100"/>
           <a:ext cx="5676190" cy="828571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1293,15 +4236,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>485244</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>85629</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>513819</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>104679</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1317,14 +4260,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2076450" y="9220200"/>
+          <a:off x="2047875" y="10763250"/>
           <a:ext cx="4247619" cy="771429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1341,16 +4284,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>8809</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>37706</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>313609</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>28181</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1366,14 +4309,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1781175" y="10220325"/>
+          <a:off x="7839075" y="9829800"/>
           <a:ext cx="5723809" cy="3152381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1386,6 +4329,315 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>504336</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>56935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03C345AA-B0D2-40CF-8C1E-4B44D9645E2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9391650" y="7667625"/>
+          <a:ext cx="3914286" cy="1723810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Arrow: Right 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97C0FA9-DEB3-4830-9CEA-0868D5F439C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8010525" y="8153400"/>
+          <a:ext cx="771525" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-EC" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Arrow: Right 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73785BD9-0B3A-4C4C-A943-77C971C8C32D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6667500" y="10982325"/>
+          <a:ext cx="771525" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-EC" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{361D8EEE-C4C4-4C12-AD89-9CA9EA16A599}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>719137</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C58332E6-41B5-4AD8-90E5-5C44435B2673}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CDD5390-4AA0-4CD7-B774-D9767DDEB26A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>100011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D06F2A-7E00-41E5-AB0C-9772FC5A9BED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1688,186 +4940,431 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92516865-AD7E-4CAA-93F3-A51857ECCF63}">
-  <dimension ref="B2:H47"/>
+  <dimension ref="B2:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="O51" sqref="O51"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="13" width="12.42578125" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="14.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
+    <col min="7" max="13" width="12.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
-      <c r="C5" s="1"/>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="2:4">
-      <c r="D6" s="2" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
-      <c r="D7" s="2" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
-      <c r="D8" s="2" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
-      <c r="D9" s="2" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
-      <c r="D10" s="2" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="D11" s="2" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
-      <c r="D12" s="2" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
-      <c r="D13" s="2" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
-      <c r="D14" s="2" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
-      <c r="D15" s="2"/>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="2:4">
-      <c r="C16" s="1" t="s">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D22" s="8">
+        <v>10</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="17" spans="3:8">
-      <c r="C17" s="5" t="s">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="D23" s="8">
+        <v>20</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="21" spans="3:8">
-      <c r="D21" s="4" t="s">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="8">
+        <v>50</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="8">
+        <v>100</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="8">
+        <v>200</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="8">
+        <v>500</v>
+      </c>
+      <c r="E27" s="6">
+        <v>5.72</v>
+      </c>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E28" s="6">
+        <v>14.03</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E29" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="8">
+        <v>5000</v>
+      </c>
+      <c r="E30" s="6">
+        <v>314.7</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="3:8">
-      <c r="C22" s="4" t="s">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="3:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D84" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C85" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="8">
+        <v>10</v>
+      </c>
+      <c r="E85" s="9">
+        <v>22373</v>
+      </c>
+      <c r="F85" s="8">
+        <f>E85/D85</f>
+        <v>2237.3000000000002</v>
+      </c>
+      <c r="G85" s="9">
+        <v>6078</v>
+      </c>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C86" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="8">
+        <v>20</v>
+      </c>
+      <c r="E86" s="9">
+        <v>42737</v>
+      </c>
+      <c r="F86" s="8">
+        <f t="shared" ref="F86:F93" si="0">E86/D86</f>
+        <v>2136.85</v>
+      </c>
+      <c r="G86" s="9">
+        <v>9874</v>
+      </c>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C87" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="8">
-        <v>9.3399999999999997E-2</v>
+      <c r="D87" s="8">
+        <v>50</v>
+      </c>
+      <c r="E87" s="9">
+        <v>80113</v>
+      </c>
+      <c r="F87" s="8">
+        <f t="shared" si="0"/>
+        <v>1602.26</v>
+      </c>
+      <c r="G87" s="9">
+        <v>16967</v>
       </c>
     </row>
-    <row r="23" spans="3:8">
-      <c r="C23" s="4" t="s">
+    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C88" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="8">
-        <v>0.25190000000000001</v>
+      <c r="D88" s="8">
+        <v>100</v>
+      </c>
+      <c r="E88" s="9">
+        <v>119744</v>
+      </c>
+      <c r="F88" s="8">
+        <f t="shared" si="0"/>
+        <v>1197.44</v>
+      </c>
+      <c r="G88" s="9">
+        <v>22891</v>
       </c>
     </row>
-    <row r="24" spans="3:8">
-      <c r="C24" s="4" t="s">
+    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C89" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="8">
-        <v>0.6109</v>
+      <c r="D89" s="8">
+        <v>200</v>
+      </c>
+      <c r="E89" s="9">
+        <v>255814</v>
+      </c>
+      <c r="F89" s="8">
+        <f t="shared" si="0"/>
+        <v>1279.07</v>
+      </c>
+      <c r="G89" s="9">
+        <v>39701</v>
       </c>
     </row>
-    <row r="25" spans="3:8">
-      <c r="C25" s="4" t="s">
+    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C90" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="8">
-        <v>1.1457999999999999</v>
+      <c r="D90" s="8">
+        <v>500</v>
+      </c>
+      <c r="E90" s="9">
+        <v>456532</v>
+      </c>
+      <c r="F90" s="8">
+        <f t="shared" si="0"/>
+        <v>913.06399999999996</v>
+      </c>
+      <c r="G90" s="9">
+        <v>65027</v>
       </c>
     </row>
-    <row r="26" spans="3:8">
-      <c r="C26" s="4" t="s">
+    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C91" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="8">
-        <v>2.8649</v>
+      <c r="D91" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E91" s="9">
+        <v>722913</v>
+      </c>
+      <c r="F91" s="8">
+        <f t="shared" si="0"/>
+        <v>722.91300000000001</v>
+      </c>
+      <c r="G91" s="9">
+        <v>96036</v>
       </c>
     </row>
-    <row r="27" spans="3:8">
-      <c r="C27" s="4" t="s">
+    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C92" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="8">
-        <v>5.4741</v>
-      </c>
-      <c r="H27" s="6"/>
+      <c r="D92" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E92" s="9">
+        <v>1139876</v>
+      </c>
+      <c r="F92" s="8">
+        <f t="shared" si="0"/>
+        <v>569.93799999999999</v>
+      </c>
+      <c r="G92" s="9">
+        <v>145008</v>
+      </c>
     </row>
-    <row r="28" spans="3:8">
-      <c r="C28" s="4" t="s">
+    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C93" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="8">
-        <v>16.6296</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8">
-      <c r="C29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="8">
-        <v>48.947400000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8">
-      <c r="C30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="8">
-        <v>424.51499999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3">
-      <c r="C37" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3">
-      <c r="C38" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3">
-      <c r="C40" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3">
-      <c r="C47" s="7" t="s">
-        <v>26</v>
+      <c r="D93" s="8">
+        <v>5000</v>
+      </c>
+      <c r="E93" s="9">
+        <v>2642185</v>
+      </c>
+      <c r="F93" s="8">
+        <f t="shared" si="0"/>
+        <v>528.43700000000001</v>
+      </c>
+      <c r="G93" s="9">
+        <v>290490</v>
       </c>
     </row>
   </sheetData>

--- a/information_recovery/practice2/Practice_02_IR_preprocessing_dictionary.xlsx
+++ b/information_recovery/practice2/Practice_02_IR_preprocessing_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Python\olmedo-vinueza-alexander-daniel\information_recovery\practice2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9CA88B-4240-4022-8358-B95A68DC0E51}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5976E7B-35AC-463A-B485-560B76AEB661}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A027B95B-EEB5-4FF7-8BFC-041FC2FE0CFC}"/>
+    <workbookView xWindow="16920" yWindow="4005" windowWidth="21600" windowHeight="11385" xr2:uid="{A027B95B-EEB5-4FF7-8BFC-041FC2FE0CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>Exercise 1: Increasing the size of the collection</t>
   </si>
@@ -178,18 +178,98 @@
   <si>
     <t xml:space="preserve">    4. collection frequency of terms.</t>
   </si>
+  <si>
+    <t>Exercise 3: Stop-words</t>
+  </si>
+  <si>
+    <t>Download a stop-words list (cf. list, lecture n°2).</t>
+  </si>
+  <si>
+    <r>
+      <t>Refresh the index of the 9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPSMT"/>
+      </rPr>
+      <t xml:space="preserve">th </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPSMT"/>
+      </rPr>
+      <t>file of the exercise n°1, removing stop words.</t>
+    </r>
+  </si>
+  <si>
+    <t>Compute again the statistics of the exercise n°2</t>
+  </si>
+  <si>
+    <t>Stop word list:</t>
+  </si>
+  <si>
+    <t>("also","although","always","am","among", "amongst", "amoungst", "amount",  "an", "and", "another", "any","anyhow","anyone","anything","anyway", "anywhere", "are", "around", "as",  "at", "back","be","became",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "because","become","becomes", "becoming", "been", "before", "beforehand", "behind", "being", "below", "beside", "besides", "between", "beyond", "bill", "both", "bottom","but", "by", "call", "can", "cannot",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "cant", "co", "con", "could", "couldnt", "cry", "de", "describe", "detail", "do", "done", "down", "due", "during", "each", "eg", "eight", "either", "eleven","else", "elsewhere", "empty", "enough", "etc", </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "even", "ever", "every", "everyone", "everything", "everywhere", "except", "few", "fifteen", "fify", "fill", "find", "fire", "first", "five", "for", "former", "formerly", "forty", "found", "four", "from", </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "front", "full", "further", "get", "give", "go", "had", "has", "hasnt", "have", "he", "hence", "her", "here", "hereafter", "hereby", "herein", "hereupon", "hers", "herself", "him", "himself", "his", "how",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "however", "hundred", "ie", "if", "in", "inc", "indeed", "interest", "into", "is", "it", "its", "itself", "keep", "last", "latter", "latterly", "least", "less", "ltd", "made", "many", "may", "me", "meanwhile",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "might", "mill", "mine", "more", "moreover", "most", "mostly", "move", "much", "must", "my", "myself", "name", "namely", "neither", "never", "nevertheless", "next", "nine", "no", "nobody", "none", "noone", </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "nor", "not", "nothing", "now", "nowhere", "of", "off", "often", "on", "once", "one", "only", "onto", "or", "other", "others", "otherwise", "our", "ours", "ourselves", "out", "over", "own","part", "per", </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "perhaps", "please", "put", "rather", "re", "same", "see", "seem", "seemed", "seeming", "seems", "serious", "several", "she", "should", "show", "side", "since", "sincere", "six", "sixty", "so", "some", </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "somehow", "someone", "something", "sometime", "sometimes", "somewhere", "still", "such", "system", "take", "ten", "than", "that", "the", "their", "them", "themselves", "then", "thence", "there", "thereafter",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "thereby", "therefore", "therein", "thereupon", "these", "they", "thick", "thin", "third", "this", "those", "though", "three", "through", "throughout", "thru", "thus", "to", "together", "too", "top", "toward",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "towards", "twelve", "twenty", "two", "un", "under", "until", "up", "upon", "us", "very", "via", "was", "we", "well", "were", "what", "whatever", "when", "whence", "whenever", "where", "whereafter", "whereas",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "whereby", "wherein", "whereupon", "wherever", "whether", "which", "while", "whither", "who", "whoever", "whole", "whom", "whose", "why", "will", "with", "within", "without", "would", "yet", "you", "your", </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "yours", "yourself", "yourselves", "the")</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="TimesNewRomanPSMT"/>
     </font>
     <font>
       <sz val="11"/>
@@ -224,6 +304,17 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="TimesNewRomanPS-BoldMT"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="TimesNewRomanPSMT"/>
     </font>
   </fonts>
   <fills count="2">
@@ -261,20 +352,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1958,6 +2052,1717 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-EC"/>
+              <a:t>Total Document Lenght</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total document length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$85:$D$93</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$85:$E$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>22373</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42737</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80113</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255814</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>456532</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>722913</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1139876</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2642185</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F2B8-456F-9789-0B3E8C07D3FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Stop words removed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$137:$D$145</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$137:$E$145</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>14691</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52035</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>166708</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>303572</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>486670</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>783766</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1843165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F2B8-456F-9789-0B3E8C07D3FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1967232095"/>
+        <c:axId val="1918780511"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1967232095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-EC"/>
+                  <a:t>Collection Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1918780511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1918780511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-EC"/>
+                  <a:t>Length of all documents</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1967232095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:miter lim="800000"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-EC"/>
+              <a:t>Average Document</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-EC" baseline="0"/>
+              <a:t> Length</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average document length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$85:$D$93</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$85:$F$93</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2237.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2136.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1602.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1197.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1279.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>913.06399999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>722.91300000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>569.93799999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>528.43700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA61-4237-B1E0-81FB14D08F75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Stop words removed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$137:$D$145</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$137:$F$145</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1469.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1380.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1040.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>787.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>833.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>607.14400000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>486.67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>391.88299999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>368.63299999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CA61-4237-B1E0-81FB14D08F75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1916898559"/>
+        <c:axId val="1837570383"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1916898559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-EC"/>
+                  <a:t>Collection Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1837570383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1837570383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1916898559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:miter lim="800000"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-EC"/>
+              <a:t>Vocabulary</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-EC" baseline="0"/>
+              <a:t> Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vocabulary size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$85:$D$93</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$85:$G$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6078</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9874</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16967</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22891</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65027</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96036</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>290490</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC71-4A2E-B45F-9ACEDD5DDB68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Stop words removed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$137:$D$145</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$137:$G$145</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5855</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9623</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22620</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39415</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64737</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95739</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>144710</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>290192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DC71-4A2E-B45F-9ACEDD5DDB68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1900176223"/>
+        <c:axId val="1839692319"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1900176223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-EC"/>
+                  <a:t>Collection Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1839692319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1839692319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1900176223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:miter lim="800000"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2118,6 +3923,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3667,6 +5592,1554 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4193,9 +7666,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>599365</xdr:colOff>
+      <xdr:colOff>51955</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>104671</xdr:rowOff>
+      <xdr:rowOff>24691</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4218,8 +7691,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1533525" y="8039100"/>
-          <a:ext cx="5676190" cy="828571"/>
+          <a:off x="1526598" y="8039100"/>
+          <a:ext cx="5123584" cy="748591"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4236,15 +7709,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
+      <xdr:colOff>187902</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>181841</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>513819</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>104679</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>981410</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>770</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4267,8 +7740,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="10763250"/>
-          <a:ext cx="4247619" cy="771429"/>
+          <a:off x="1400175" y="10849841"/>
+          <a:ext cx="4239826" cy="771429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4284,16 +7757,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>31174</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>10392</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>313609</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>17488</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>28181</xdr:rowOff>
+      <xdr:rowOff>103910</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4316,8 +7789,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7839075" y="9829800"/>
-          <a:ext cx="5723809" cy="3152381"/>
+          <a:off x="7460674" y="10106892"/>
+          <a:ext cx="5354950" cy="2951018"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4333,14 +7806,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381866</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>504336</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>365791</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>56935</xdr:rowOff>
     </xdr:to>
@@ -4365,8 +7838,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9391650" y="7667625"/>
-          <a:ext cx="3914286" cy="1723810"/>
+          <a:off x="8642639" y="7667625"/>
+          <a:ext cx="3915152" cy="1723810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4382,16 +7855,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>675409</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>135081</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>618259</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>49356</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4406,7 +7879,65 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8010525" y="8153400"/>
+          <a:off x="7273636" y="8136081"/>
+          <a:ext cx="774123" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-EC" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>175780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>321253</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>90055</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Arrow: Right 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73785BD9-0B3A-4C4C-A943-77C971C8C32D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6147955" y="11034280"/>
           <a:ext cx="771525" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -4440,74 +7971,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Arrow: Right 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73785BD9-0B3A-4C4C-A943-77C971C8C32D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6667500" y="10982325"/>
-          <a:ext cx="771525" cy="485775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-EC" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>425224</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>22451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>274865</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4570,16 +8043,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>42862</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600755</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>7484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>796018</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4606,16 +8079,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>557212</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>100011</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>189818</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>181655</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>155864</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>173183</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4635,6 +8108,120 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>816429</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C78D0CB-330F-42D5-8754-601EC49B0D14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>258536</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05949C44-5DD7-4C52-94F9-1B70F4574F48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>588819</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>17317</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>294409</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1FD97DF-87BC-467A-99E1-8B713ACD3DF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4940,436 +8527,710 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92516865-AD7E-4CAA-93F3-A51857ECCF63}">
-  <dimension ref="B2:I93"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="B144" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q141" sqref="Q141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="14.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
-    <col min="7" max="13" width="12.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="14.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="2" customWidth="1"/>
+    <col min="7" max="13" width="12.42578125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:4">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="2:4">
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="3"/>
+    <row r="5" spans="2:4">
+      <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D6" s="3" t="s">
+    <row r="6" spans="2:4">
+      <c r="D6" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D7" s="3" t="s">
+    <row r="7" spans="2:4">
+      <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D8" s="3" t="s">
+    <row r="8" spans="2:4">
+      <c r="D8" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D9" s="3" t="s">
+    <row r="9" spans="2:4">
+      <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D10" s="3" t="s">
+    <row r="10" spans="2:4">
+      <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D11" s="3" t="s">
+    <row r="11" spans="2:4">
+      <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D12" s="3" t="s">
+    <row r="12" spans="2:4">
+      <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D13" s="3" t="s">
+    <row r="13" spans="2:4">
+      <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D14" s="3" t="s">
+    <row r="14" spans="2:4">
+      <c r="D14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D15" s="3"/>
+    <row r="15" spans="2:4">
+      <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="3" t="s">
+    <row r="16" spans="2:4">
+      <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="4" t="s">
+    <row r="17" spans="3:9">
+      <c r="C17" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D21" s="10" t="s">
+    <row r="21" spans="3:9">
+      <c r="D21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="5" t="s">
+    <row r="22" spans="3:9">
+      <c r="C22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="10">
         <v>10</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="7">
         <v>0.08</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="5" t="s">
+    <row r="23" spans="3:9">
+      <c r="C23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="10">
         <v>20</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="7">
         <v>0.13</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="5" t="s">
+    <row r="24" spans="3:9">
+      <c r="C24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="10">
         <v>50</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="7">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="5" t="s">
+    <row r="25" spans="3:9">
+      <c r="C25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="10">
         <v>100</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="7">
         <v>0.43</v>
       </c>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="5" t="s">
+    <row r="26" spans="3:9">
+      <c r="C26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="10">
         <v>200</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="7">
         <v>1.87</v>
       </c>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="5" t="s">
+    <row r="27" spans="3:9">
+      <c r="C27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="10">
         <v>500</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="7">
         <v>5.72</v>
       </c>
-      <c r="I27" s="7"/>
+      <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="5" t="s">
+    <row r="28" spans="3:9">
+      <c r="C28" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="10">
         <v>1000</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="7">
         <v>14.03</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="5" t="s">
+    <row r="29" spans="3:9">
+      <c r="C29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="10">
         <v>2000</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="7">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="5" t="s">
+    <row r="30" spans="3:9">
+      <c r="C30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="10">
         <v>5000</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="7">
         <v>314.7</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="3" t="s">
+    <row r="37" spans="3:3">
+      <c r="C37" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="3" t="s">
+    <row r="38" spans="3:3">
+      <c r="C38" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="1" t="s">
+    <row r="40" spans="3:3">
+      <c r="C40" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="1" t="s">
+    <row r="50" spans="3:3">
+      <c r="C50" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="2" t="s">
+    <row r="73" spans="2:3">
+      <c r="B73" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C75" s="1" t="s">
+    <row r="75" spans="2:3">
+      <c r="C75" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C76" s="1" t="s">
+    <row r="76" spans="2:3">
+      <c r="C76" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C77" s="1" t="s">
+    <row r="77" spans="2:3">
+      <c r="C77" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C78" s="1" t="s">
+    <row r="78" spans="2:3">
+      <c r="C78" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C79" s="1" t="s">
+    <row r="79" spans="2:3">
+      <c r="C79" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C80" s="1" t="s">
+    <row r="80" spans="2:3">
+      <c r="C80" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="3:7" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D84" s="10" t="s">
+    <row r="84" spans="3:7" ht="28.5">
+      <c r="D84" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E84" s="10" t="s">
+      <c r="E84" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F84" s="10" t="s">
+      <c r="F84" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G84" s="10" t="s">
+      <c r="G84" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="5" t="s">
+    <row r="85" spans="3:7">
+      <c r="C85" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85" s="10">
         <v>10</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E85" s="11">
         <v>22373</v>
       </c>
-      <c r="F85" s="8">
+      <c r="F85" s="10">
         <f>E85/D85</f>
         <v>2237.3000000000002</v>
       </c>
-      <c r="G85" s="9">
+      <c r="G85" s="11">
         <v>6078</v>
       </c>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="5" t="s">
+    <row r="86" spans="3:7">
+      <c r="C86" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D86" s="10">
         <v>20</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E86" s="11">
         <v>42737</v>
       </c>
-      <c r="F86" s="8">
+      <c r="F86" s="10">
         <f t="shared" ref="F86:F93" si="0">E86/D86</f>
         <v>2136.85</v>
       </c>
-      <c r="G86" s="9">
+      <c r="G86" s="11">
         <v>9874</v>
       </c>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="5" t="s">
+    <row r="87" spans="3:7">
+      <c r="C87" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D87" s="10">
         <v>50</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E87" s="11">
         <v>80113</v>
       </c>
-      <c r="F87" s="8">
+      <c r="F87" s="10">
         <f t="shared" si="0"/>
         <v>1602.26</v>
       </c>
-      <c r="G87" s="9">
+      <c r="G87" s="11">
         <v>16967</v>
       </c>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="5" t="s">
+    <row r="88" spans="3:7">
+      <c r="C88" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D88" s="10">
         <v>100</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E88" s="11">
         <v>119744</v>
       </c>
-      <c r="F88" s="8">
+      <c r="F88" s="10">
         <f t="shared" si="0"/>
         <v>1197.44</v>
       </c>
-      <c r="G88" s="9">
+      <c r="G88" s="11">
         <v>22891</v>
       </c>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="5" t="s">
+    <row r="89" spans="3:7">
+      <c r="C89" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D89" s="10">
         <v>200</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E89" s="11">
         <v>255814</v>
       </c>
-      <c r="F89" s="8">
+      <c r="F89" s="10">
         <f t="shared" si="0"/>
         <v>1279.07</v>
       </c>
-      <c r="G89" s="9">
+      <c r="G89" s="11">
         <v>39701</v>
       </c>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="5" t="s">
+    <row r="90" spans="3:7">
+      <c r="C90" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D90" s="10">
         <v>500</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E90" s="11">
         <v>456532</v>
       </c>
-      <c r="F90" s="8">
+      <c r="F90" s="10">
         <f t="shared" si="0"/>
         <v>913.06399999999996</v>
       </c>
-      <c r="G90" s="9">
+      <c r="G90" s="11">
         <v>65027</v>
       </c>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="5" t="s">
+    <row r="91" spans="3:7">
+      <c r="C91" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D91" s="10">
         <v>1000</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E91" s="11">
         <v>722913</v>
       </c>
-      <c r="F91" s="8">
+      <c r="F91" s="10">
         <f t="shared" si="0"/>
         <v>722.91300000000001</v>
       </c>
-      <c r="G91" s="9">
+      <c r="G91" s="11">
         <v>96036</v>
       </c>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="5" t="s">
+    <row r="92" spans="3:7">
+      <c r="C92" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D92" s="10">
         <v>2000</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E92" s="11">
         <v>1139876</v>
       </c>
-      <c r="F92" s="8">
+      <c r="F92" s="10">
         <f t="shared" si="0"/>
         <v>569.93799999999999</v>
       </c>
-      <c r="G92" s="9">
+      <c r="G92" s="11">
         <v>145008</v>
       </c>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="5" t="s">
+    <row r="93" spans="3:7">
+      <c r="C93" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D93" s="8">
+      <c r="D93" s="10">
         <v>5000</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E93" s="11">
         <v>2642185</v>
       </c>
-      <c r="F93" s="8">
+      <c r="F93" s="10">
         <f t="shared" si="0"/>
         <v>528.43700000000001</v>
       </c>
-      <c r="G93" s="9">
+      <c r="G93" s="11">
         <v>290490</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" ht="15.75">
+      <c r="B113" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3">
+      <c r="C115" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3">
+      <c r="C116" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3">
+      <c r="C117" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="C119" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="C120" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3">
+      <c r="C121" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="C122" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3">
+      <c r="C123" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="C124" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3">
+      <c r="C125" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3">
+      <c r="C126" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3">
+      <c r="C127" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3">
+      <c r="C128" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="129" spans="3:7">
+      <c r="C129" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="130" spans="3:7">
+      <c r="C130" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="131" spans="3:7">
+      <c r="C131" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="132" spans="3:7">
+      <c r="C132" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="133" spans="3:7">
+      <c r="C133" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="136" spans="3:7" ht="28.5">
+      <c r="D136" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F136" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G136" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="137" spans="3:7">
+      <c r="C137" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" s="10">
+        <v>10</v>
+      </c>
+      <c r="E137" s="11">
+        <v>14691</v>
+      </c>
+      <c r="F137" s="10">
+        <f>E137/D137</f>
+        <v>1469.1</v>
+      </c>
+      <c r="G137" s="11">
+        <v>5855</v>
+      </c>
+    </row>
+    <row r="138" spans="3:7">
+      <c r="C138" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="10">
+        <v>20</v>
+      </c>
+      <c r="E138" s="11">
+        <v>27603</v>
+      </c>
+      <c r="F138" s="10">
+        <f t="shared" ref="F138:F145" si="1">E138/D138</f>
+        <v>1380.15</v>
+      </c>
+      <c r="G138" s="11">
+        <v>9623</v>
+      </c>
+    </row>
+    <row r="139" spans="3:7">
+      <c r="C139" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" s="10">
+        <v>50</v>
+      </c>
+      <c r="E139" s="11">
+        <v>52035</v>
+      </c>
+      <c r="F139" s="10">
+        <f t="shared" si="1"/>
+        <v>1040.7</v>
+      </c>
+      <c r="G139" s="11">
+        <v>16699</v>
+      </c>
+    </row>
+    <row r="140" spans="3:7">
+      <c r="C140" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140" s="10">
+        <v>100</v>
+      </c>
+      <c r="E140" s="11">
+        <v>78744</v>
+      </c>
+      <c r="F140" s="10">
+        <f t="shared" si="1"/>
+        <v>787.44</v>
+      </c>
+      <c r="G140" s="11">
+        <v>22620</v>
+      </c>
+    </row>
+    <row r="141" spans="3:7">
+      <c r="C141" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" s="10">
+        <v>200</v>
+      </c>
+      <c r="E141" s="11">
+        <v>166708</v>
+      </c>
+      <c r="F141" s="10">
+        <f t="shared" si="1"/>
+        <v>833.54</v>
+      </c>
+      <c r="G141" s="11">
+        <v>39415</v>
+      </c>
+    </row>
+    <row r="142" spans="3:7">
+      <c r="C142" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" s="10">
+        <v>500</v>
+      </c>
+      <c r="E142" s="11">
+        <v>303572</v>
+      </c>
+      <c r="F142" s="10">
+        <f t="shared" si="1"/>
+        <v>607.14400000000001</v>
+      </c>
+      <c r="G142" s="11">
+        <v>64737</v>
+      </c>
+    </row>
+    <row r="143" spans="3:7">
+      <c r="C143" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" s="10">
+        <v>1000</v>
+      </c>
+      <c r="E143" s="11">
+        <v>486670</v>
+      </c>
+      <c r="F143" s="10">
+        <f t="shared" si="1"/>
+        <v>486.67</v>
+      </c>
+      <c r="G143" s="11">
+        <v>95739</v>
+      </c>
+    </row>
+    <row r="144" spans="3:7">
+      <c r="C144" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D144" s="10">
+        <v>2000</v>
+      </c>
+      <c r="E144" s="11">
+        <v>783766</v>
+      </c>
+      <c r="F144" s="10">
+        <f t="shared" si="1"/>
+        <v>391.88299999999998</v>
+      </c>
+      <c r="G144" s="11">
+        <v>144710</v>
+      </c>
+    </row>
+    <row r="145" spans="3:7">
+      <c r="C145" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D145" s="10">
+        <v>5000</v>
+      </c>
+      <c r="E145" s="11">
+        <v>1843165</v>
+      </c>
+      <c r="F145" s="10">
+        <f t="shared" si="1"/>
+        <v>368.63299999999998</v>
+      </c>
+      <c r="G145" s="11">
+        <v>290192</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="41" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/information_recovery/practice2/Practice_02_IR_preprocessing_dictionary.xlsx
+++ b/information_recovery/practice2/Practice_02_IR_preprocessing_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Python\olmedo-vinueza-alexander-daniel\information_recovery\practice2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5976E7B-35AC-463A-B485-560B76AEB661}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5437062E-6828-4458-96E7-646EB7F1233E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="4005" windowWidth="21600" windowHeight="11385" xr2:uid="{A027B95B-EEB5-4FF7-8BFC-041FC2FE0CFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A027B95B-EEB5-4FF7-8BFC-041FC2FE0CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
   <si>
     <t>Exercise 1: Increasing the size of the collection</t>
   </si>
@@ -102,51 +102,10 @@
     <t>Read several files and uncompress if it's compressed:</t>
   </si>
   <si>
-    <t>Time efficiency (s)</t>
-  </si>
-  <si>
     <t>Print the index:</t>
   </si>
   <si>
     <t>Exercise 2: Collection Statistics</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Index each of these files using your indexing program (cf. Practical session n°1: dictionary, postings lists, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>df</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>tf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>). Build a time efficiency graph of your program.</t>
-    </r>
   </si>
   <si>
     <t>Modify your indexing program so that it computes different statistics on the indexed collection, for instance:</t>
@@ -183,27 +142,6 @@
   </si>
   <si>
     <t>Download a stop-words list (cf. list, lecture n°2).</t>
-  </si>
-  <si>
-    <r>
-      <t>Refresh the index of the 9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="TimesNewRomanPSMT"/>
-      </rPr>
-      <t xml:space="preserve">th </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="TimesNewRomanPSMT"/>
-      </rPr>
-      <t>file of the exercise n°1, removing stop words.</t>
-    </r>
   </si>
   <si>
     <t>Compute again the statistics of the exercise n°2</t>
@@ -253,12 +191,120 @@
   <si>
     <t xml:space="preserve"> "yours", "yourself", "yourselves", "the")</t>
   </si>
+  <si>
+    <t>Exercise 4: Porter’s Stemmer</t>
+  </si>
+  <si>
+    <t>Download a Porter’s Stemmer (cf. list, lecture n°2)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Index each of these files using your indexing program (cf. Practical session n°1: dictionary, postings lists, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tf</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>). Build a time efficiency graph of your program.</t>
+    </r>
+  </si>
+  <si>
+    <t>As the collection size increases, the time it takes to process also increases</t>
+  </si>
+  <si>
+    <t>Time efficiency (seconds)</t>
+  </si>
+  <si>
+    <t>As the collections size increases the average documente decreases. The vocabulary size increases, on the other hand.</t>
+  </si>
+  <si>
+    <r>
+      <t>Refresh the index of the 9</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPSMT"/>
+      </rPr>
+      <t xml:space="preserve">th </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPSMT"/>
+      </rPr>
+      <t>file of the exercise n°1, removing stop words.</t>
+    </r>
+  </si>
+  <si>
+    <t>After removing the stop words the total document length decreases, but it almost doesn't affect the vocabulary size. It remains pretty much the same.</t>
+  </si>
+  <si>
+    <r>
+      <t>Refresh the index of the 9</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPSMT"/>
+      </rPr>
+      <t xml:space="preserve">th </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPSMT"/>
+      </rPr>
+      <t>file of the exercise n°1, applying Porter's stemmer.</t>
+    </r>
+  </si>
+  <si>
+    <t>After applying the Porter's Stemmer the document size increases over removing the stop words, but the vocabulary size decreases significantly.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,7 +315,8 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="TimesNewRomanPSMT"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -282,19 +329,6 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -312,6 +346,28 @@
       <name val="TimesNewRomanPS-BoldMT"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="TimesNewRomanPSMT"/>
+    </font>
+    <font>
+      <b/>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="TimesNewRomanPSMT"/>
@@ -352,23 +408,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,7 +498,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$84</c:f>
+              <c:f>Sheet1!$E$83</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -473,7 +533,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$85:$D$93</c:f>
+              <c:f>Sheet1!$D$84:$D$92</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -509,7 +569,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$85:$E$93</c:f>
+              <c:f>Sheet1!$E$84:$E$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -827,6 +887,671 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-EC"/>
+              <a:t>Vocabulary</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-EC" baseline="0"/>
+              <a:t> Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vocabulary size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$84:$D$92</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$84:$G$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6078</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9874</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16967</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22891</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65027</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96036</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>290490</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C1F-457F-B3D2-D97998B0366E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Stop words removed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$136:$D$144</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$136:$G$144</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5855</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9623</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22620</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39415</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64737</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95739</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>144710</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>290192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3C1F-457F-B3D2-D97998B0366E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Porter's Stemmer</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$174:$D$182</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$174:$G$182</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5043</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13692</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18945</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32905</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55288</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83290</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128745</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>264620</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3C1F-457F-B3D2-D97998B0366E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1900176223"/>
+        <c:axId val="1839692319"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1900176223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-EC"/>
+                  <a:t>Collection Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1839692319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1839692319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1900176223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:miter lim="800000"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -883,7 +1608,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time efficiency (s)</c:v>
+                  <c:v>Time efficiency (seconds)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1320,7 +2045,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$84</c:f>
+              <c:f>Sheet1!$F$83</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1355,7 +2080,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$85:$D$93</c:f>
+              <c:f>Sheet1!$D$84:$D$92</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1391,7 +2116,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$85:$F$93</c:f>
+              <c:f>Sheet1!$F$84:$F$92</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1712,7 +2437,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$84</c:f>
+              <c:f>Sheet1!$G$83</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1747,7 +2472,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$85:$D$93</c:f>
+              <c:f>Sheet1!$D$84:$D$92</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1783,7 +2508,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$85:$G$93</c:f>
+              <c:f>Sheet1!$G$84:$G$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2126,7 +2851,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$84</c:f>
+              <c:f>Sheet1!$E$83</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2161,7 +2886,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$85:$D$93</c:f>
+              <c:f>Sheet1!$D$84:$D$92</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2197,7 +2922,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$85:$E$93</c:f>
+              <c:f>Sheet1!$E$84:$E$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2270,7 +2995,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$137:$D$145</c:f>
+              <c:f>Sheet1!$D$136:$D$144</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2306,7 +3031,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$137:$E$145</c:f>
+              <c:f>Sheet1!$E$136:$E$144</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2730,7 +3455,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$84</c:f>
+              <c:f>Sheet1!$F$83</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2765,7 +3490,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$85:$D$93</c:f>
+              <c:f>Sheet1!$D$84:$D$92</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2801,7 +3526,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$85:$F$93</c:f>
+              <c:f>Sheet1!$F$84:$F$92</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2874,7 +3599,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$137:$D$145</c:f>
+              <c:f>Sheet1!$D$136:$D$144</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2910,7 +3635,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$137:$F$145</c:f>
+              <c:f>Sheet1!$F$136:$F$144</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3286,7 +4011,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$84</c:f>
+              <c:f>Sheet1!$G$83</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3321,7 +4046,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$85:$D$93</c:f>
+              <c:f>Sheet1!$D$84:$D$92</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3357,7 +4082,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$85:$G$93</c:f>
+              <c:f>Sheet1!$G$84:$G$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3430,7 +4155,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$137:$D$145</c:f>
+              <c:f>Sheet1!$D$136:$D$144</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3466,7 +4191,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$137:$G$145</c:f>
+              <c:f>Sheet1!$G$136:$G$144</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3763,7 +4488,1420 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-EC"/>
+              <a:t>Total Document Lenght</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total document length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$84:$D$92</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$84:$E$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>22373</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42737</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80113</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255814</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>456532</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>722913</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1139876</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2642185</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8335-4986-8913-65E35AB6B451}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Stop words removed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$136:$D$144</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$136:$E$144</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>14691</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52035</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>166708</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>303572</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>486670</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>783766</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1843165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8335-4986-8913-65E35AB6B451}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Porter's Stemmer</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$174:$D$182</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$174:$E$182</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>15211</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28491</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53627</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81394</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>172539</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>313693</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>502432</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>807082</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1895289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8335-4986-8913-65E35AB6B451}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1967232095"/>
+        <c:axId val="1918780511"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1967232095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-EC"/>
+                  <a:t>Collection Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1918780511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1918780511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-EC"/>
+                  <a:t>Length of all documents</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1967232095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:miter lim="800000"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-EC"/>
+              <a:t>Average Document</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-EC" baseline="0"/>
+              <a:t> Length</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average document length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$84:$D$92</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$84:$F$92</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2237.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2136.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1602.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1197.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1279.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>913.06399999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>722.91300000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>569.93799999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>528.43700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C78-42B3-BFDA-DD231B7EF50A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Stop words removed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$136:$D$144</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$136:$F$144</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1469.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1380.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1040.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>787.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>833.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>607.14400000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>486.67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>391.88299999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>368.63299999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5C78-42B3-BFDA-DD231B7EF50A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Porter's Stemmer</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$174:$D$182</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$174:$F$182</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1521.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1424.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1072.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>813.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>862.69500000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>627.38599999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>502.43200000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>403.541</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>379.05779999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5C78-42B3-BFDA-DD231B7EF50A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1916898559"/>
+        <c:axId val="1837570383"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1916898559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-EC"/>
+                  <a:t>Collection Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1837570383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1837570383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1916898559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:miter lim="800000"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4043,6 +6181,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4559,7 +6777,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5075,7 +7293,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5591,7 +7809,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6107,7 +8325,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6623,7 +8841,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7139,7 +9357,1555 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7709,7 +11475,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>187902</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>181841</xdr:rowOff>
     </xdr:from>
@@ -7732,16 +11498,15 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="1408"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1400175" y="10849841"/>
-          <a:ext cx="4239826" cy="771429"/>
+          <a:off x="1466850" y="11030816"/>
+          <a:ext cx="4181810" cy="771429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7973,13 +11738,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>425224</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>22451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>274865</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>46264</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8008,15 +11773,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>290512</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>719137</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:colOff>642937</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8045,13 +11810,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>600755</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>7484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>796018</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8081,13 +11846,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>189818</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>181655</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>155864</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>173183</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8117,13 +11882,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>40821</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>816429</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>13607</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8155,13 +11920,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>258536</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>40822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>173182</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8193,13 +11958,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>588819</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>17317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>294409</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>69272</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8222,6 +11987,120 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>747033</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A210D27B-4DEE-4F17-B535-5052657577EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>436789</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>141885</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A69F059A-4E4F-45E5-98CE-9968EFED6A9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>134215</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>71005</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{482CBCCE-C0D7-412F-BECD-08EBEEF5FC32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8530,10 +12409,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:I145"/>
+  <dimension ref="B2:I202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B144" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q141" sqref="Q141"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H206" sqref="H206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8547,685 +12426,929 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:5">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="2:5">
+      <c r="C4" s="13" t="s">
         <v>1</v>
       </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="2:4">
-      <c r="C5" s="4"/>
+    <row r="5" spans="2:5">
+      <c r="C5" s="13"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="2:4">
-      <c r="D6" s="4" t="s">
+    <row r="6" spans="2:5">
+      <c r="C6" s="7"/>
+      <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="2:4">
-      <c r="D7" s="4" t="s">
+    <row r="7" spans="2:5">
+      <c r="C7" s="7"/>
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="2:4">
-      <c r="D8" s="4" t="s">
+    <row r="8" spans="2:5">
+      <c r="C8" s="7"/>
+      <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="2:4">
-      <c r="D9" s="4" t="s">
+    <row r="9" spans="2:5">
+      <c r="C9" s="7"/>
+      <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="2:4">
-      <c r="D10" s="4" t="s">
+    <row r="10" spans="2:5">
+      <c r="C10" s="7"/>
+      <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="2:4">
-      <c r="D11" s="4" t="s">
+    <row r="11" spans="2:5">
+      <c r="C11" s="7"/>
+      <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="2:4">
-      <c r="D12" s="4" t="s">
+    <row r="12" spans="2:5">
+      <c r="C12" s="7"/>
+      <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="2:4">
-      <c r="D13" s="4" t="s">
+    <row r="13" spans="2:5">
+      <c r="C13" s="7"/>
+      <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="2:4">
-      <c r="D14" s="4" t="s">
+    <row r="14" spans="2:5">
+      <c r="C14" s="7"/>
+      <c r="D14" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="2:4">
-      <c r="D15" s="4"/>
+    <row r="15" spans="2:5">
+      <c r="C15" s="7"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="2:4">
-      <c r="C16" s="4" t="s">
-        <v>26</v>
-      </c>
+    <row r="16" spans="2:5">
+      <c r="C16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="3:9">
-      <c r="C17" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="C17" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
     </row>
-    <row r="21" spans="3:9">
-      <c r="D21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>23</v>
+    <row r="21" spans="3:9" ht="29.25">
+      <c r="D21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="3:9">
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
         <v>10</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="5">
         <v>0.08</v>
       </c>
     </row>
     <row r="23" spans="3:9">
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="8">
         <v>20</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <v>0.13</v>
       </c>
     </row>
     <row r="24" spans="3:9">
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="8">
         <v>50</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="5">
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="25" spans="3:9">
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="8">
         <v>100</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="5">
         <v>0.43</v>
       </c>
     </row>
     <row r="26" spans="3:9">
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="8">
         <v>200</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="5">
         <v>1.87</v>
       </c>
     </row>
     <row r="27" spans="3:9">
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="8">
         <v>500</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="5">
         <v>5.72</v>
       </c>
-      <c r="I27" s="8"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="3:9">
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="8">
         <v>1000</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="5">
         <v>14.03</v>
       </c>
     </row>
     <row r="29" spans="3:9">
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="8">
         <v>2000</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="5">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="3:9">
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="8">
         <v>5000</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="5">
         <v>314.7</v>
       </c>
     </row>
-    <row r="37" spans="3:3">
-      <c r="C37" s="4" t="s">
+    <row r="34" spans="3:7">
+      <c r="G34" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="C37" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="3:3">
-      <c r="C38" s="4" t="s">
+    <row r="38" spans="3:7">
+      <c r="C38" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="3:3">
+    <row r="40" spans="3:7">
       <c r="C40" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="2:3">
-      <c r="C75" s="2" t="s">
-        <v>28</v>
+      <c r="C75" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="2:3">
-      <c r="C76" s="2" t="s">
-        <v>34</v>
+      <c r="C76" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="2:3">
-      <c r="C77" s="2" t="s">
-        <v>35</v>
+      <c r="C77" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="2:3">
-      <c r="C78" s="2" t="s">
-        <v>36</v>
+      <c r="C78" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="2:3">
-      <c r="C79" s="2" t="s">
-        <v>37</v>
+      <c r="C79" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="80" spans="2:3">
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7" ht="28.5">
+      <c r="D83" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G83" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="3:7" ht="28.5">
-      <c r="D84" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E84" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F84" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G84" s="12" t="s">
-        <v>32</v>
+    <row r="84" spans="3:7">
+      <c r="C84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="8">
+        <v>10</v>
+      </c>
+      <c r="E84" s="10">
+        <v>22373</v>
+      </c>
+      <c r="F84" s="8">
+        <f>E84/D84</f>
+        <v>2237.3000000000002</v>
+      </c>
+      <c r="G84" s="10">
+        <v>6078</v>
       </c>
     </row>
     <row r="85" spans="3:7">
-      <c r="C85" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D85" s="10">
-        <v>10</v>
-      </c>
-      <c r="E85" s="11">
-        <v>22373</v>
-      </c>
-      <c r="F85" s="10">
-        <f>E85/D85</f>
-        <v>2237.3000000000002</v>
-      </c>
-      <c r="G85" s="11">
-        <v>6078</v>
+      <c r="C85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="8">
+        <v>20</v>
+      </c>
+      <c r="E85" s="10">
+        <v>42737</v>
+      </c>
+      <c r="F85" s="8">
+        <f t="shared" ref="F85:F92" si="0">E85/D85</f>
+        <v>2136.85</v>
+      </c>
+      <c r="G85" s="10">
+        <v>9874</v>
       </c>
     </row>
     <row r="86" spans="3:7">
-      <c r="C86" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="10">
-        <v>20</v>
-      </c>
-      <c r="E86" s="11">
-        <v>42737</v>
-      </c>
-      <c r="F86" s="10">
-        <f t="shared" ref="F86:F93" si="0">E86/D86</f>
-        <v>2136.85</v>
-      </c>
-      <c r="G86" s="11">
-        <v>9874</v>
+      <c r="C86" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="8">
+        <v>50</v>
+      </c>
+      <c r="E86" s="10">
+        <v>80113</v>
+      </c>
+      <c r="F86" s="8">
+        <f t="shared" si="0"/>
+        <v>1602.26</v>
+      </c>
+      <c r="G86" s="10">
+        <v>16967</v>
       </c>
     </row>
     <row r="87" spans="3:7">
-      <c r="C87" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87" s="10">
-        <v>50</v>
-      </c>
-      <c r="E87" s="11">
-        <v>80113</v>
-      </c>
-      <c r="F87" s="10">
+      <c r="C87" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="8">
+        <v>100</v>
+      </c>
+      <c r="E87" s="10">
+        <v>119744</v>
+      </c>
+      <c r="F87" s="8">
         <f t="shared" si="0"/>
-        <v>1602.26</v>
-      </c>
-      <c r="G87" s="11">
-        <v>16967</v>
+        <v>1197.44</v>
+      </c>
+      <c r="G87" s="10">
+        <v>22891</v>
       </c>
     </row>
     <row r="88" spans="3:7">
-      <c r="C88" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88" s="10">
-        <v>100</v>
-      </c>
-      <c r="E88" s="11">
-        <v>119744</v>
-      </c>
-      <c r="F88" s="10">
+      <c r="C88" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="8">
+        <v>200</v>
+      </c>
+      <c r="E88" s="10">
+        <v>255814</v>
+      </c>
+      <c r="F88" s="8">
         <f t="shared" si="0"/>
-        <v>1197.44</v>
-      </c>
-      <c r="G88" s="11">
-        <v>22891</v>
+        <v>1279.07</v>
+      </c>
+      <c r="G88" s="10">
+        <v>39701</v>
       </c>
     </row>
     <row r="89" spans="3:7">
-      <c r="C89" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D89" s="10">
-        <v>200</v>
-      </c>
-      <c r="E89" s="11">
-        <v>255814</v>
-      </c>
-      <c r="F89" s="10">
+      <c r="C89" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="8">
+        <v>500</v>
+      </c>
+      <c r="E89" s="10">
+        <v>456532</v>
+      </c>
+      <c r="F89" s="8">
         <f t="shared" si="0"/>
-        <v>1279.07</v>
-      </c>
-      <c r="G89" s="11">
-        <v>39701</v>
+        <v>913.06399999999996</v>
+      </c>
+      <c r="G89" s="10">
+        <v>65027</v>
       </c>
     </row>
     <row r="90" spans="3:7">
-      <c r="C90" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D90" s="10">
-        <v>500</v>
-      </c>
-      <c r="E90" s="11">
-        <v>456532</v>
-      </c>
-      <c r="F90" s="10">
+      <c r="C90" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E90" s="10">
+        <v>722913</v>
+      </c>
+      <c r="F90" s="8">
         <f t="shared" si="0"/>
-        <v>913.06399999999996</v>
-      </c>
-      <c r="G90" s="11">
-        <v>65027</v>
+        <v>722.91300000000001</v>
+      </c>
+      <c r="G90" s="10">
+        <v>96036</v>
       </c>
     </row>
     <row r="91" spans="3:7">
-      <c r="C91" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D91" s="10">
-        <v>1000</v>
-      </c>
-      <c r="E91" s="11">
-        <v>722913</v>
-      </c>
-      <c r="F91" s="10">
+      <c r="C91" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E91" s="10">
+        <v>1139876</v>
+      </c>
+      <c r="F91" s="8">
         <f t="shared" si="0"/>
-        <v>722.91300000000001</v>
-      </c>
-      <c r="G91" s="11">
-        <v>96036</v>
+        <v>569.93799999999999</v>
+      </c>
+      <c r="G91" s="10">
+        <v>145008</v>
       </c>
     </row>
     <row r="92" spans="3:7">
-      <c r="C92" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D92" s="10">
-        <v>2000</v>
-      </c>
-      <c r="E92" s="11">
-        <v>1139876</v>
-      </c>
-      <c r="F92" s="10">
-        <f t="shared" si="0"/>
-        <v>569.93799999999999</v>
-      </c>
-      <c r="G92" s="11">
-        <v>145008</v>
-      </c>
-    </row>
-    <row r="93" spans="3:7">
-      <c r="C93" s="6" t="s">
+      <c r="C92" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D93" s="10">
+      <c r="D92" s="8">
         <v>5000</v>
       </c>
-      <c r="E93" s="11">
+      <c r="E92" s="10">
         <v>2642185</v>
       </c>
-      <c r="F93" s="10">
+      <c r="F92" s="8">
         <f t="shared" si="0"/>
         <v>528.43700000000001</v>
       </c>
-      <c r="G93" s="11">
+      <c r="G92" s="10">
         <v>290490</v>
       </c>
     </row>
-    <row r="113" spans="2:3" ht="15.75">
-      <c r="B113" s="13" t="s">
+    <row r="110" spans="2:3">
+      <c r="C110" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" ht="15.75">
+      <c r="B112" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3">
+      <c r="C114" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3">
+      <c r="C116" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="115" spans="2:3">
-      <c r="C115" s="1" t="s">
+    <row r="119" spans="3:3">
+      <c r="C119" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="2:3">
-      <c r="C116" s="1" t="s">
+    <row r="120" spans="3:3">
+      <c r="C120" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="117" spans="2:3">
-      <c r="C117" s="1" t="s">
+    <row r="121" spans="3:3">
+      <c r="C121" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="2:3">
-      <c r="C119" s="9" t="s">
+    <row r="122" spans="3:3">
+      <c r="C122" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="120" spans="2:3">
-      <c r="C120" s="2" t="s">
+    <row r="123" spans="3:3">
+      <c r="C123" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="121" spans="2:3">
-      <c r="C121" s="2" t="s">
+    <row r="124" spans="3:3">
+      <c r="C124" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="122" spans="2:3">
-      <c r="C122" s="2" t="s">
+    <row r="125" spans="3:3">
+      <c r="C125" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="123" spans="2:3">
-      <c r="C123" s="2" t="s">
+    <row r="126" spans="3:3">
+      <c r="C126" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="124" spans="2:3">
-      <c r="C124" s="2" t="s">
+    <row r="127" spans="3:3">
+      <c r="C127" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="125" spans="2:3">
-      <c r="C125" s="2" t="s">
+    <row r="128" spans="3:3">
+      <c r="C128" s="2" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="126" spans="2:3">
-      <c r="C126" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="127" spans="2:3">
-      <c r="C127" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="128" spans="2:3">
-      <c r="C128" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="129" spans="3:7">
       <c r="C129" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130" spans="3:7">
       <c r="C130" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131" spans="3:7">
       <c r="C131" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="132" spans="3:7">
       <c r="C132" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="133" spans="3:7">
-      <c r="C133" s="2" t="s">
-        <v>56</v>
+    <row r="135" spans="3:7" ht="28.5">
+      <c r="D135" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F135" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G135" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="136" spans="3:7" ht="28.5">
-      <c r="D136" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E136" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F136" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G136" s="12" t="s">
-        <v>32</v>
+    <row r="136" spans="3:7">
+      <c r="C136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" s="8">
+        <v>10</v>
+      </c>
+      <c r="E136" s="10">
+        <v>14691</v>
+      </c>
+      <c r="F136" s="8">
+        <f>E136/D136</f>
+        <v>1469.1</v>
+      </c>
+      <c r="G136" s="10">
+        <v>5855</v>
       </c>
     </row>
     <row r="137" spans="3:7">
-      <c r="C137" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D137" s="10">
-        <v>10</v>
-      </c>
-      <c r="E137" s="11">
-        <v>14691</v>
-      </c>
-      <c r="F137" s="10">
-        <f>E137/D137</f>
-        <v>1469.1</v>
-      </c>
-      <c r="G137" s="11">
-        <v>5855</v>
+      <c r="C137" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="8">
+        <v>20</v>
+      </c>
+      <c r="E137" s="10">
+        <v>27603</v>
+      </c>
+      <c r="F137" s="8">
+        <f t="shared" ref="F137:F144" si="1">E137/D137</f>
+        <v>1380.15</v>
+      </c>
+      <c r="G137" s="10">
+        <v>9623</v>
       </c>
     </row>
     <row r="138" spans="3:7">
-      <c r="C138" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138" s="10">
-        <v>20</v>
-      </c>
-      <c r="E138" s="11">
-        <v>27603</v>
-      </c>
-      <c r="F138" s="10">
-        <f t="shared" ref="F138:F145" si="1">E138/D138</f>
-        <v>1380.15</v>
-      </c>
-      <c r="G138" s="11">
-        <v>9623</v>
+      <c r="C138" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" s="8">
+        <v>50</v>
+      </c>
+      <c r="E138" s="10">
+        <v>52035</v>
+      </c>
+      <c r="F138" s="8">
+        <f t="shared" si="1"/>
+        <v>1040.7</v>
+      </c>
+      <c r="G138" s="10">
+        <v>16699</v>
       </c>
     </row>
     <row r="139" spans="3:7">
-      <c r="C139" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D139" s="10">
-        <v>50</v>
-      </c>
-      <c r="E139" s="11">
-        <v>52035</v>
-      </c>
-      <c r="F139" s="10">
+      <c r="C139" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" s="8">
+        <v>100</v>
+      </c>
+      <c r="E139" s="10">
+        <v>78744</v>
+      </c>
+      <c r="F139" s="8">
         <f t="shared" si="1"/>
-        <v>1040.7</v>
-      </c>
-      <c r="G139" s="11">
-        <v>16699</v>
+        <v>787.44</v>
+      </c>
+      <c r="G139" s="10">
+        <v>22620</v>
       </c>
     </row>
     <row r="140" spans="3:7">
-      <c r="C140" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D140" s="10">
-        <v>100</v>
-      </c>
-      <c r="E140" s="11">
-        <v>78744</v>
-      </c>
-      <c r="F140" s="10">
+      <c r="C140" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" s="8">
+        <v>200</v>
+      </c>
+      <c r="E140" s="10">
+        <v>166708</v>
+      </c>
+      <c r="F140" s="8">
         <f t="shared" si="1"/>
-        <v>787.44</v>
-      </c>
-      <c r="G140" s="11">
-        <v>22620</v>
+        <v>833.54</v>
+      </c>
+      <c r="G140" s="10">
+        <v>39415</v>
       </c>
     </row>
     <row r="141" spans="3:7">
-      <c r="C141" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D141" s="10">
-        <v>200</v>
-      </c>
-      <c r="E141" s="11">
-        <v>166708</v>
-      </c>
-      <c r="F141" s="10">
+      <c r="C141" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" s="8">
+        <v>500</v>
+      </c>
+      <c r="E141" s="10">
+        <v>303572</v>
+      </c>
+      <c r="F141" s="8">
         <f t="shared" si="1"/>
-        <v>833.54</v>
-      </c>
-      <c r="G141" s="11">
-        <v>39415</v>
+        <v>607.14400000000001</v>
+      </c>
+      <c r="G141" s="10">
+        <v>64737</v>
       </c>
     </row>
     <row r="142" spans="3:7">
-      <c r="C142" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D142" s="10">
-        <v>500</v>
-      </c>
-      <c r="E142" s="11">
-        <v>303572</v>
-      </c>
-      <c r="F142" s="10">
+      <c r="C142" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E142" s="10">
+        <v>486670</v>
+      </c>
+      <c r="F142" s="8">
         <f t="shared" si="1"/>
-        <v>607.14400000000001</v>
-      </c>
-      <c r="G142" s="11">
-        <v>64737</v>
+        <v>486.67</v>
+      </c>
+      <c r="G142" s="10">
+        <v>95739</v>
       </c>
     </row>
     <row r="143" spans="3:7">
-      <c r="C143" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D143" s="10">
-        <v>1000</v>
-      </c>
-      <c r="E143" s="11">
-        <v>486670</v>
-      </c>
-      <c r="F143" s="10">
+      <c r="C143" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D143" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E143" s="10">
+        <v>783766</v>
+      </c>
+      <c r="F143" s="8">
         <f t="shared" si="1"/>
-        <v>486.67</v>
-      </c>
-      <c r="G143" s="11">
-        <v>95739</v>
+        <v>391.88299999999998</v>
+      </c>
+      <c r="G143" s="10">
+        <v>144710</v>
       </c>
     </row>
     <row r="144" spans="3:7">
-      <c r="C144" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D144" s="10">
-        <v>2000</v>
-      </c>
-      <c r="E144" s="11">
-        <v>783766</v>
-      </c>
-      <c r="F144" s="10">
-        <f t="shared" si="1"/>
-        <v>391.88299999999998</v>
-      </c>
-      <c r="G144" s="11">
-        <v>144710</v>
-      </c>
-    </row>
-    <row r="145" spans="3:7">
-      <c r="C145" s="6" t="s">
+      <c r="C144" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D145" s="10">
+      <c r="D144" s="8">
         <v>5000</v>
       </c>
-      <c r="E145" s="11">
+      <c r="E144" s="10">
         <v>1843165</v>
       </c>
-      <c r="F145" s="10">
+      <c r="F144" s="8">
         <f t="shared" si="1"/>
         <v>368.63299999999998</v>
       </c>
-      <c r="G145" s="11">
+      <c r="G144" s="10">
         <v>290192</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7">
+      <c r="C164" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" ht="15.75">
+      <c r="B167" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7">
+      <c r="C169" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7">
+      <c r="C170" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7">
+      <c r="C171" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" ht="28.5">
+      <c r="D173" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E173" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F173" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G173" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7">
+      <c r="C174" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D174" s="8">
+        <v>10</v>
+      </c>
+      <c r="E174" s="10">
+        <v>15211</v>
+      </c>
+      <c r="F174" s="8">
+        <f>E174/D174</f>
+        <v>1521.1</v>
+      </c>
+      <c r="G174" s="10">
+        <v>5043</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7">
+      <c r="C175" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" s="8">
+        <v>20</v>
+      </c>
+      <c r="E175" s="10">
+        <v>28491</v>
+      </c>
+      <c r="F175" s="8">
+        <f t="shared" ref="F175:F182" si="2">E175/D175</f>
+        <v>1424.55</v>
+      </c>
+      <c r="G175" s="10">
+        <v>7863</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7">
+      <c r="C176" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D176" s="8">
+        <v>50</v>
+      </c>
+      <c r="E176" s="10">
+        <v>53627</v>
+      </c>
+      <c r="F176" s="8">
+        <f t="shared" si="2"/>
+        <v>1072.54</v>
+      </c>
+      <c r="G176" s="10">
+        <v>13692</v>
+      </c>
+    </row>
+    <row r="177" spans="3:7">
+      <c r="C177" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D177" s="8">
+        <v>100</v>
+      </c>
+      <c r="E177" s="10">
+        <v>81394</v>
+      </c>
+      <c r="F177" s="8">
+        <f t="shared" si="2"/>
+        <v>813.94</v>
+      </c>
+      <c r="G177" s="10">
+        <v>18945</v>
+      </c>
+    </row>
+    <row r="178" spans="3:7">
+      <c r="C178" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D178" s="8">
+        <v>200</v>
+      </c>
+      <c r="E178" s="10">
+        <v>172539</v>
+      </c>
+      <c r="F178" s="8">
+        <f t="shared" si="2"/>
+        <v>862.69500000000005</v>
+      </c>
+      <c r="G178" s="10">
+        <v>32905</v>
+      </c>
+    </row>
+    <row r="179" spans="3:7">
+      <c r="C179" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D179" s="8">
+        <v>500</v>
+      </c>
+      <c r="E179" s="10">
+        <v>313693</v>
+      </c>
+      <c r="F179" s="8">
+        <f t="shared" si="2"/>
+        <v>627.38599999999997</v>
+      </c>
+      <c r="G179" s="10">
+        <v>55288</v>
+      </c>
+    </row>
+    <row r="180" spans="3:7">
+      <c r="C180" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D180" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E180" s="10">
+        <v>502432</v>
+      </c>
+      <c r="F180" s="8">
+        <f t="shared" si="2"/>
+        <v>502.43200000000002</v>
+      </c>
+      <c r="G180" s="10">
+        <v>83290</v>
+      </c>
+    </row>
+    <row r="181" spans="3:7">
+      <c r="C181" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D181" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E181" s="10">
+        <v>807082</v>
+      </c>
+      <c r="F181" s="8">
+        <f t="shared" si="2"/>
+        <v>403.541</v>
+      </c>
+      <c r="G181" s="10">
+        <v>128745</v>
+      </c>
+    </row>
+    <row r="182" spans="3:7">
+      <c r="C182" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D182" s="8">
+        <v>5000</v>
+      </c>
+      <c r="E182" s="10">
+        <v>1895289</v>
+      </c>
+      <c r="F182" s="8">
+        <f t="shared" si="2"/>
+        <v>379.05779999999999</v>
+      </c>
+      <c r="G182" s="10">
+        <v>264620</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3">
+      <c r="C202" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
